--- a/outputs-HGR-r202/g__Enterococcus_B.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus_B.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +754,1638 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44002.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1372639539866921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7877478920722265</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07498815394108153</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7877478920722265</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44177.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1996532317359508</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7366080189068159</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06373874935723313</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7366080189068159</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44666.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1372639539866921</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7877478920722265</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.07498815394108153</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7877478920722265</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45882.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.197081516854181</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7410731667586068</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06184531638721225</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7410731667586068</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48488.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1954280133545713</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7423564438824626</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06221554276296622</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7423564438824626</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48629.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1409421440220571</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7832220730297651</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.07583578294817776</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7832220730297651</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48682.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1284695037427269</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8071862532683417</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.06434424298893149</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8071862532683417</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48829.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2070366856458197</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7343835357155346</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05857977863864567</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7343835357155346</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48887.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1244257528927117</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8099360211315647</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.06563822597572343</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8099360211315647</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49002.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1316684395369487</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7916437789247265</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.07668778153832471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7916437789247265</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49023.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1936000043219346</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7476880653230586</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05871193035500671</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7476880653230586</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49297.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2012254284274388</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7401626264594656</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05861194511309571</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7401626264594656</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49379.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1217965209610717</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8213766458897714</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05682683314915688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8213766458897714</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49567.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1567614143941095</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7759104638365704</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.06732812176931996</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7759104638365704</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1657823883099392</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7675572625987001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0666603490913608</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7675572625987001</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT67985.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1238787852316293</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8063396321616944</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0697815826066762</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8063396321616944</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68111.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1503679302942543</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7888700224977001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.06076204720804557</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7888700224977001</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68640.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1293919685574967</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7964981694083059</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.07410986203419735</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7964981694083059</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7086.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1307119136374224</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7942605999069788</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07502748645559876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7942605999069788</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7175.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1900410056345618</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7479559543641406</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.06200304000129767</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7479559543641406</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87407.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1454560389384543</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7882225125990536</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.06632144846249204</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7882225125990536</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87621.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1489844616394599</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7869240280453383</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.06409151031520166</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7869240280453383</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87674.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1454560389384543</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7882225125990536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.06632144846249204</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7882225125990536</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87941.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1512836643687079</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7801565721068309</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.06855976352446128</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7801565721068309</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88714.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1284509675817585</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0664082070516903</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88733.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1574272579508273</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7801367562959212</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0624359857532515</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7801367562959212</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88737.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1550183536948546</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7773766211086335</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.06760502519651193</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7773766211086335</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88876.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1284509675817585</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0664082070516903</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89068.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1356582098496738</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.07029854119656259</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89179.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89204.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89292.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1421759561596555</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7889432991314678</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.06888074470887665</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7889432991314678</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89317.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1323996418473141</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7963932055370971</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.07120715261558894</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7963932055370971</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89355.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1447232613001444</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0709203595065564</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89363.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1268788218059868</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8056913663899408</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06742981180407247</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8056913663899408</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89413.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1283219988720821</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8022082597821468</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06946974134577111</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8022082597821468</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89720.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1564015773871457</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7750509807246517</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.06854744188820261</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7750509807246517</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89992.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1356582098496738</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.07029854119656259</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90064.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.119165421782403</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8145220927482264</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.06631248546937048</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.8145220927482264</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90077.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1284509675817585</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0664082070516903</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90107.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1447232613001444</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0709203595065564</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90127.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1313057931814059</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8047183667166578</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.06397584010193644</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8047183667166578</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90167.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1447232613001444</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0709203595065564</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90189.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1447232613001444</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0709203595065564</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7843563791932993</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90251.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1284509675817585</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0664082070516903</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90266.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1686162175901641</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7681616538856236</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0632221285242123</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7681616538856236</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90291.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1323996418473141</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.7963932055370971</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.07120715261558894</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7963932055370971</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90368.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1137402319131665</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8217437576368487</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.06451601044998487</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.8217437576368487</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90390.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1356582098496738</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.07029854119656259</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90429.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1386285446964398</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8003262664828373</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.06104518882072282</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8003262664828373</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90505.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90598.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1284509675817585</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0664082070516903</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90630.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1284509675817585</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0664082070516903</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8051408253665511</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90636.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1435394806300472</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7925666747817099</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.06389384458824282</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7925666747817099</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90777.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1310795995229086</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8049263924903516</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.06399400798673978</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.8049263924903516</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90901.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1325055471718842</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8027555376201023</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.06473891520801341</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8027555376201023</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90946.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90975.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91032.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1152750641832612</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8189540765914596</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0657708592252792</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8189540765914596</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91072.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1283219988720821</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8022082597821468</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06946974134577111</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8022082597821468</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91119.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91131.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1356582098496738</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.07029854119656259</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7940432489537637</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91135.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1440742111446232</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0700732114207203</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7858525774346565</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91251.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1937676036564264</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.7410093047832754</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.06522309156029819</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7410093047832754</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91736.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1979548008171674</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.7392554661223306</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0627897330605019</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7392554661223306</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91762.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.2192093893718517</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.7203079973514788</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.06048261327666946</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7203079973514788</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91833.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1987265438280927</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7435454576652843</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0577279985066231</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7435454576652843</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91960.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.204717302112289</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.7343695930607502</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.06091310482696065</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7343695930607502</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Enterococcus_B.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus_B.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1665,6 +1915,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1689,6 +1944,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1713,6 +1973,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1737,6 +2002,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1761,6 +2031,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1785,6 +2060,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1809,6 +2089,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1833,6 +2118,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1857,6 +2147,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1881,6 +2176,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1905,6 +2205,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1929,6 +2234,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1953,6 +2263,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1977,6 +2292,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2001,6 +2321,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2025,6 +2350,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2049,6 +2379,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2073,6 +2408,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2097,6 +2437,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2121,6 +2466,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2145,6 +2495,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2169,6 +2524,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2193,6 +2553,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2217,6 +2582,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2241,6 +2611,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2265,6 +2640,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2289,6 +2669,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2313,6 +2698,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2337,6 +2727,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2361,6 +2756,11 @@
           <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2381,6 +2781,11 @@
         <v>0.7343695930607502</v>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_B faecium</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>s__Enterococcus_B faecium</t>
         </is>
